--- a/report/购票.xlsx
+++ b/report/购票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,150 +44,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>110526198512041000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明</t>
+  </si>
+  <si>
+    <t>李厚福</t>
+  </si>
+  <si>
+    <t>唐杰</t>
+  </si>
+  <si>
+    <t>张志远</t>
+  </si>
+  <si>
+    <t>刘洁</t>
+  </si>
+  <si>
+    <t>王海</t>
+  </si>
+  <si>
+    <t>孙宇峰</t>
+  </si>
+  <si>
+    <t>刘明</t>
+  </si>
+  <si>
+    <t>高洁</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>G226</t>
+  </si>
+  <si>
+    <t>G280</t>
+  </si>
+  <si>
+    <t>G1810</t>
+  </si>
+  <si>
+    <t>G79</t>
+  </si>
+  <si>
+    <t>G673</t>
+  </si>
+  <si>
+    <t>G126</t>
+  </si>
+  <si>
+    <t>G141</t>
+  </si>
+  <si>
+    <t>G39</t>
+  </si>
+  <si>
+    <t>二等座</t>
+  </si>
+  <si>
+    <t>110526198512041001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110526198512041002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110526198512041003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110526198512041004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>18612345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110526198512041001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于学忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110526198512041000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二等座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/06/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于学忠</t>
-  </si>
-  <si>
-    <t>陈明</t>
-  </si>
-  <si>
-    <t>李厚福</t>
-  </si>
-  <si>
-    <t>唐杰</t>
-  </si>
-  <si>
-    <t>张志远</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>王海</t>
-  </si>
-  <si>
-    <t>孙宇峰</t>
-  </si>
-  <si>
-    <t>刘明</t>
-  </si>
-  <si>
-    <t>高洁</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>合肥</t>
-  </si>
-  <si>
-    <t>青岛</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>G23</t>
-  </si>
-  <si>
-    <t>G226</t>
-  </si>
-  <si>
-    <t>G280</t>
-  </si>
-  <si>
-    <t>G1810</t>
-  </si>
-  <si>
-    <t>G79</t>
-  </si>
-  <si>
-    <t>G673</t>
-  </si>
-  <si>
-    <t>G126</t>
-  </si>
-  <si>
-    <t>G141</t>
-  </si>
-  <si>
-    <t>G39</t>
-  </si>
-  <si>
-    <t>二等座</t>
-  </si>
-  <si>
-    <t>110526198512041001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110526198512041002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110526198512041003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110526198512041004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>18612345678</t>
+    <t>630104193203288457</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +224,13 @@
       <color rgb="FF858796"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF858796"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -266,6 +282,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,7 +594,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,293 +627,293 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4">
         <v>43644</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4">
         <v>43625</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4">
         <v>43628</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4">
         <v>43629</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4">
         <v>43623</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4">
         <v>43618</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4">
         <v>43619</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="4">
         <v>43628</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4">
         <v>43622</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="4">
         <v>43645</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/report/购票.xlsx
+++ b/report/购票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,36 @@
   <si>
     <t>630104193203288457</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/06/02</t>
+  </si>
+  <si>
+    <t>2019/06/03</t>
+  </si>
+  <si>
+    <t>2019/06/04</t>
+  </si>
+  <si>
+    <t>2019/06/05</t>
+  </si>
+  <si>
+    <t>2019/06/06</t>
+  </si>
+  <si>
+    <t>2019/06/07</t>
+  </si>
+  <si>
+    <t>2019/06/08</t>
+  </si>
+  <si>
+    <t>2019/06/09</t>
+  </si>
+  <si>
+    <t>2019/06/10</t>
+  </si>
+  <si>
+    <t>2019/06/11</t>
   </si>
 </sst>
 </file>
@@ -274,14 +304,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,7 +621,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +684,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -675,8 +702,8 @@
       <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4">
-        <v>43644</v>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>49</v>
@@ -701,8 +728,8 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="4">
-        <v>43625</v>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>49</v>
@@ -727,8 +754,8 @@
       <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4">
-        <v>43628</v>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>49</v>
@@ -753,8 +780,8 @@
       <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="4">
-        <v>43629</v>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>49</v>
@@ -779,8 +806,8 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4">
-        <v>43623</v>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>49</v>
@@ -805,8 +832,8 @@
       <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4">
-        <v>43618</v>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>49</v>
@@ -831,8 +858,8 @@
       <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="4">
-        <v>43619</v>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>49</v>
@@ -857,8 +884,8 @@
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="4">
-        <v>43628</v>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>49</v>
@@ -883,8 +910,8 @@
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="4">
-        <v>43622</v>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>49</v>
@@ -909,8 +936,8 @@
       <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="4">
-        <v>43645</v>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>49</v>
